--- a/PortfolioBidsTwanJoost.xlsx
+++ b/PortfolioBidsTwanJoost.xlsx
@@ -4,62 +4,104 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14140" yWindow="0" windowWidth="14540" windowHeight="17540"/>
+    <workbookView xWindow="-80" yWindow="-460" windowWidth="28800" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bid Structure" sheetId="1" r:id="rId1"/>
     <sheet name="Cumulative Capacities" sheetId="2" r:id="rId2"/>
+    <sheet name="Bid Structure (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
+    <definedName name="bids" localSheetId="2">'Bid Structure (2)'!$E$2:$T$43</definedName>
     <definedName name="bids" localSheetId="1">#REF!</definedName>
     <definedName name="bids">'Bid Structure'!$E$2:$T$43</definedName>
     <definedName name="OpenSolver_ChosenSolver" localSheetId="0" hidden="1">CBC</definedName>
+    <definedName name="OpenSolver_ChosenSolver" localSheetId="2" hidden="1">CBC</definedName>
     <definedName name="OpenSolver_DualsNewSheet" localSheetId="0" hidden="1">TRUE</definedName>
+    <definedName name="OpenSolver_DualsNewSheet" localSheetId="2" hidden="1">TRUE</definedName>
     <definedName name="OpenSolver_LinearityCheck" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="OpenSolver_LinearityCheck" localSheetId="2" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="0" hidden="1">FALSE</definedName>
+    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="2" hidden="1">FALSE</definedName>
+    <definedName name="quantity" localSheetId="2">'Bid Structure (2)'!#REF!</definedName>
     <definedName name="quantity" localSheetId="1">#REF!</definedName>
     <definedName name="quantity">'Bid Structure'!#REF!</definedName>
+    <definedName name="quantityColumn" localSheetId="2">'Bid Structure (2)'!#REF!</definedName>
     <definedName name="quantityColumn" localSheetId="1">#REF!</definedName>
     <definedName name="quantityColumn">'Bid Structure'!#REF!</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Bid Structure'!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Bid Structure (2)'!#REF!</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Bid Structure'!#REF!</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Bid Structure (2)'!#REF!</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Bid Structure'!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Bid Structure (2)'!#REF!</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Bid Structure'!#REF!</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Bid Structure (2)'!#REF!</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="totaldemand" localSheetId="2">'Bid Structure (2)'!#REF!</definedName>
     <definedName name="totaldemand" localSheetId="1">#REF!</definedName>
     <definedName name="totaldemand">'Bid Structure'!#REF!</definedName>
+    <definedName name="totaldemandcolumn" localSheetId="2">'Bid Structure (2)'!#REF!</definedName>
     <definedName name="totaldemandcolumn" localSheetId="1">#REF!</definedName>
     <definedName name="totaldemandcolumn">'Bid Structure'!#REF!</definedName>
+    <definedName name="totalproduction" localSheetId="2">'Bid Structure (2)'!#REF!</definedName>
     <definedName name="totalproduction" localSheetId="1">#REF!</definedName>
     <definedName name="totalproduction">'Bid Structure'!#REF!</definedName>
+    <definedName name="totalproductioncol" localSheetId="2">'Bid Structure (2)'!#REF!</definedName>
     <definedName name="totalproductioncol" localSheetId="1">#REF!</definedName>
     <definedName name="totalproductioncol">'Bid Structure'!#REF!</definedName>
   </definedNames>
@@ -76,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="91">
   <si>
     <t>Portfolio #</t>
   </si>
@@ -456,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -549,6 +591,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -593,6 +644,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -600,6 +662,17 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -621,6 +694,48 @@
         <color auto="1"/>
       </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
@@ -661,7 +776,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -686,29 +801,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="6" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="6" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1"/>
@@ -723,11 +851,12 @@
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="3" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="3" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="20% - Accent4" xfId="3" builtinId="42"/>
@@ -1036,7 +1165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A45" sqref="A45:T45"/>
     </sheetView>
   </sheetViews>
@@ -1121,90 +1250,90 @@
       <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="V1" s="29" t="str">
+      <c r="V1" s="42" t="str">
         <f>E1</f>
         <v>D1H1</v>
       </c>
-      <c r="W1" s="29" t="str">
+      <c r="W1" s="42" t="str">
         <f t="shared" ref="W1:AK1" si="0">F1</f>
         <v>D1H2</v>
       </c>
-      <c r="X1" s="29" t="str">
+      <c r="X1" s="42" t="str">
         <f t="shared" si="0"/>
         <v>D1H3</v>
       </c>
-      <c r="Y1" s="29" t="str">
+      <c r="Y1" s="42" t="str">
         <f t="shared" si="0"/>
         <v>D1H4</v>
       </c>
-      <c r="Z1" s="29" t="str">
+      <c r="Z1" s="42" t="str">
         <f t="shared" si="0"/>
         <v>D2H1</v>
       </c>
-      <c r="AA1" s="29" t="str">
+      <c r="AA1" s="42" t="str">
         <f t="shared" si="0"/>
         <v>D2H2</v>
       </c>
-      <c r="AB1" s="29" t="str">
+      <c r="AB1" s="42" t="str">
         <f t="shared" si="0"/>
         <v>D2H3</v>
       </c>
-      <c r="AC1" s="29" t="str">
+      <c r="AC1" s="42" t="str">
         <f t="shared" si="0"/>
         <v>D2H4</v>
       </c>
-      <c r="AD1" s="29" t="str">
+      <c r="AD1" s="42" t="str">
         <f t="shared" si="0"/>
         <v>D3H1</v>
       </c>
-      <c r="AE1" s="29" t="str">
+      <c r="AE1" s="42" t="str">
         <f t="shared" si="0"/>
         <v>D3H2</v>
       </c>
-      <c r="AF1" s="29" t="str">
+      <c r="AF1" s="42" t="str">
         <f t="shared" si="0"/>
         <v>D3H3</v>
       </c>
-      <c r="AG1" s="29" t="str">
+      <c r="AG1" s="42" t="str">
         <f t="shared" si="0"/>
         <v>D3H4</v>
       </c>
-      <c r="AH1" s="29" t="str">
+      <c r="AH1" s="42" t="str">
         <f t="shared" si="0"/>
         <v>D4H1</v>
       </c>
-      <c r="AI1" s="29" t="str">
+      <c r="AI1" s="42" t="str">
         <f t="shared" si="0"/>
         <v>D4H2</v>
       </c>
-      <c r="AJ1" s="29" t="str">
+      <c r="AJ1" s="42" t="str">
         <f t="shared" si="0"/>
         <v>D4H3</v>
       </c>
-      <c r="AK1" s="29" t="str">
+      <c r="AK1" s="42" t="str">
         <f t="shared" si="0"/>
         <v>D4H4</v>
       </c>
-      <c r="AL1" s="29" t="s">
+      <c r="AL1" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="47" t="s">
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="AO1" s="47" t="s">
+      <c r="AO1" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="AP1" s="47" t="s">
+      <c r="AP1" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="47" t="s">
+      <c r="AQ1" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="47" t="s">
+      <c r="AR1" s="60" t="s">
         <v>87</v>
       </c>
       <c r="AS1" t="s">
@@ -1227,67 +1356,67 @@
       <c r="D2" s="8">
         <v>61</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="40">
         <f>IF($D2&lt;E$45,$C2,IF($D2=E$45,E$46/MAX((COUNTIF($D$2:$D$43,"="&amp;E$45)),1),0))</f>
         <v>0</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="40">
         <f t="shared" ref="F2:T2" si="1">IF($D2&lt;F$45,$C2,IF($D2=F$45,F$46/MAX((COUNTIF($D$2:$D$43,"="&amp;F$45)),1),0))</f>
         <v>0</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="40">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="40">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="L2" s="27">
+      <c r="L2" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M2" s="27">
+      <c r="M2" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O2" s="27">
+      <c r="O2" s="40">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="P2" s="27">
+      <c r="P2" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q2" s="27">
+      <c r="Q2" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R2" s="27">
+      <c r="R2" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S2" s="27">
+      <c r="S2" s="40">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="T2" s="27">
+      <c r="T2" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1369,14 +1498,14 @@
         <f>SUM(V2:AK8)</f>
         <v>2151796</v>
       </c>
-      <c r="AP2" s="30">
+      <c r="AP2" s="43">
         <v>1950</v>
       </c>
-      <c r="AQ2" s="48">
+      <c r="AQ2" s="61">
         <f>AO2-($AO$2-540000)</f>
         <v>540000</v>
       </c>
-      <c r="AR2" s="30">
+      <c r="AR2" s="43">
         <v>6</v>
       </c>
       <c r="AS2">
@@ -1403,67 +1532,67 @@
       <c r="D3" s="12">
         <v>47</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="40">
         <f t="shared" ref="E3:T43" si="3">IF($D3&lt;E$45,$C3,IF($D3=E$45,E$46/MAX((COUNTIF($D$2:$D$43,"="&amp;E$45)),1),0))</f>
         <v>80</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="40">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="L3" s="27">
+      <c r="L3" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="40">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="O3" s="27">
+      <c r="O3" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="P3" s="27">
+      <c r="P3" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="Q3" s="27">
+      <c r="Q3" s="40">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="R3" s="27">
+      <c r="R3" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="T3" s="27">
+      <c r="T3" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
@@ -1545,14 +1674,14 @@
         <f>SUM(V9:AK14)</f>
         <v>1642156</v>
       </c>
-      <c r="AP3" s="30">
+      <c r="AP3" s="43">
         <v>1450</v>
       </c>
-      <c r="AQ3" s="48">
+      <c r="AQ3" s="61">
         <f>AO3-($AO$2-540000)</f>
         <v>30360</v>
       </c>
-      <c r="AR3" s="30">
+      <c r="AR3" s="43">
         <v>5</v>
       </c>
       <c r="AS3">
@@ -1578,67 +1707,67 @@
       <c r="D4" s="12">
         <v>60</v>
       </c>
-      <c r="E4" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="27">
+      <c r="E4" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="40">
         <f t="shared" si="3"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="I4" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="27">
+      <c r="I4" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="40">
         <f t="shared" si="3"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="M4" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="27">
+      <c r="M4" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="40">
         <f t="shared" si="3"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="Q4" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S4" s="27">
+      <c r="Q4" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="T4" s="27">
+      <c r="T4" s="40">
         <f t="shared" si="3"/>
         <v>66.666666666666671</v>
       </c>
@@ -1720,14 +1849,14 @@
         <f>SUM(V15:AK20)</f>
         <v>2497416</v>
       </c>
-      <c r="AP4" s="30">
+      <c r="AP4" s="43">
         <v>2200</v>
       </c>
-      <c r="AQ4" s="48">
+      <c r="AQ4" s="61">
         <f>AO4-($AO$2-540000)</f>
         <v>885620</v>
       </c>
-      <c r="AR4" s="30">
+      <c r="AR4" s="43">
         <v>3</v>
       </c>
       <c r="AS4">
@@ -1752,73 +1881,73 @@
       <c r="B5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="17">
         <v>250</v>
       </c>
       <c r="D5" s="12">
         <v>0</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="40">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="40">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="40">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="40">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="40">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="40">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="40">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="40">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="40">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="40">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="40">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="40">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="40">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="40">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="40">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="T5" s="27">
+      <c r="T5" s="40">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
@@ -1900,14 +2029,14 @@
         <f>SUM(V21:AK26)</f>
         <v>1885376</v>
       </c>
-      <c r="AP5" s="30">
+      <c r="AP5" s="43">
         <v>1700</v>
       </c>
-      <c r="AQ5" s="48">
+      <c r="AQ5" s="61">
         <f>AO5-($AO$2-540000)</f>
         <v>273580</v>
       </c>
-      <c r="AR5" s="30">
+      <c r="AR5" s="43">
         <v>1</v>
       </c>
       <c r="AS5">
@@ -1938,67 +2067,67 @@
       <c r="D6" s="12">
         <v>28</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q6" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="R6" s="27">
+      <c r="R6" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="T6" s="27">
+      <c r="T6" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
@@ -2073,35 +2202,35 @@
         <f t="shared" si="17"/>
         <v>500512</v>
       </c>
-      <c r="AN6" s="52" t="s">
+      <c r="AN6" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="AO6" s="52">
+      <c r="AO6" s="65">
         <f>SUM(V27:AK34)</f>
         <v>1908310</v>
       </c>
-      <c r="AP6" s="53">
+      <c r="AP6" s="66">
         <v>2000</v>
       </c>
-      <c r="AQ6" s="52">
+      <c r="AQ6" s="65">
         <f>AO6-($AO$2-540000)</f>
         <v>296514</v>
       </c>
-      <c r="AR6" s="53">
+      <c r="AR6" s="66">
         <v>4</v>
       </c>
-      <c r="AS6" s="52">
+      <c r="AS6" s="65">
         <f>5/6*AQ6</f>
         <v>247095</v>
       </c>
-      <c r="AT6" s="52">
+      <c r="AT6" s="65">
         <f>AQ6*2/3</f>
         <v>197676</v>
       </c>
-      <c r="AU6" s="52">
+      <c r="AU6" s="65">
         <v>250000</v>
       </c>
-      <c r="AV6" s="52">
+      <c r="AV6" s="65">
         <v>350000</v>
       </c>
     </row>
@@ -2118,67 +2247,67 @@
       <c r="D7" s="12">
         <v>55</v>
       </c>
-      <c r="E7" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="27">
+      <c r="E7" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="I7" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="27">
+      <c r="I7" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="40">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="M7" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="27">
+      <c r="M7" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="Q7" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="27">
+      <c r="Q7" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="40">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="S7" s="27">
+      <c r="S7" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="T7" s="27">
+      <c r="T7" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
@@ -2260,14 +2389,14 @@
         <f>SUM(V35:AK43)</f>
         <v>1638804</v>
       </c>
-      <c r="AP7" s="31">
+      <c r="AP7" s="44">
         <v>1800</v>
       </c>
-      <c r="AQ7" s="48">
+      <c r="AQ7" s="61">
         <f>AO7-($AO$2-540000)</f>
         <v>27008</v>
       </c>
-      <c r="AR7" s="31">
+      <c r="AR7" s="44">
         <v>2</v>
       </c>
       <c r="AS7">
@@ -2285,83 +2414,83 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="13" thickBot="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="20">
         <v>300</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="21">
         <v>36.5</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="S8" s="27">
+      <c r="S8" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="T8" s="27">
+      <c r="T8" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="U8" s="17" t="s">
+      <c r="U8" s="18" t="s">
         <v>20</v>
       </c>
       <c r="V8">
@@ -2434,7 +2563,7 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="13" thickBot="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2446,71 +2575,71 @@
       <c r="D9" s="12">
         <v>30</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="40">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="40">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="40">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="40">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="40">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="40">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="40">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="40">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="40">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="40">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="40">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="40">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="40">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="40">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="S9" s="27">
+      <c r="S9" s="40">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="T9" s="27">
+      <c r="T9" s="40">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="U9" s="21" t="s">
+      <c r="U9" s="26" t="s">
         <v>28</v>
       </c>
       <c r="V9">
@@ -2583,7 +2712,7 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="13" thickBot="1">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -2595,71 +2724,71 @@
       <c r="D10" s="12">
         <v>55</v>
       </c>
-      <c r="E10" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="27">
+      <c r="E10" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="I10" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="27">
+      <c r="I10" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="40">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="M10" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="27">
+      <c r="M10" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="Q10" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="27">
+      <c r="Q10" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="40">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="S10" s="27">
+      <c r="S10" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="T10" s="27">
+      <c r="T10" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="U10" s="21" t="s">
+      <c r="U10" s="26" t="s">
         <v>28</v>
       </c>
       <c r="V10">
@@ -2732,7 +2861,7 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="13" thickBot="1">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -2744,71 +2873,71 @@
       <c r="D11" s="12">
         <v>47</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="40">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="40">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="40">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="P11" s="27">
+      <c r="P11" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="40">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="S11" s="27">
+      <c r="S11" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="T11" s="27">
+      <c r="T11" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="U11" s="21" t="s">
+      <c r="U11" s="26" t="s">
         <v>28</v>
       </c>
       <c r="V11">
@@ -2881,7 +3010,7 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="13" thickBot="1">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -2893,71 +3022,71 @@
       <c r="D12" s="12">
         <v>60.5</v>
       </c>
-      <c r="E12" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="27">
+      <c r="E12" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="40">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="H12" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="27">
+      <c r="H12" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="40">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="L12" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="27">
+      <c r="L12" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="40">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="P12" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="27">
+      <c r="P12" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="40">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="T12" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="21" t="s">
+      <c r="T12" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="26" t="s">
         <v>28</v>
       </c>
       <c r="V12">
@@ -3030,7 +3159,7 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="13" thickBot="1">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -3042,71 +3171,71 @@
       <c r="D13" s="12">
         <v>36.5</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="L13" s="27">
+      <c r="L13" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="O13" s="27">
+      <c r="O13" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="S13" s="27">
+      <c r="S13" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="T13" s="27">
+      <c r="T13" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="U13" s="21" t="s">
+      <c r="U13" s="26" t="s">
         <v>28</v>
       </c>
       <c r="V13">
@@ -3179,7 +3308,7 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="13" thickBot="1">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -3191,71 +3320,71 @@
       <c r="D14" s="12">
         <v>0.5</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="L14" s="27">
+      <c r="L14" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O14" s="27">
+      <c r="O14" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P14" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="Q14" s="27">
+      <c r="Q14" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="R14" s="27">
+      <c r="R14" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="S14" s="27">
+      <c r="S14" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="T14" s="27">
+      <c r="T14" s="40">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="U14" s="21" t="s">
+      <c r="U14" s="26" t="s">
         <v>28</v>
       </c>
       <c r="V14">
@@ -3340,67 +3469,67 @@
       <c r="D15" s="8">
         <v>50</v>
       </c>
-      <c r="E15" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="27">
+      <c r="E15" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="I15" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="27">
+      <c r="I15" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="M15" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="27">
+      <c r="M15" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="O15" s="27">
+      <c r="O15" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="P15" s="27">
+      <c r="P15" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="Q15" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="27">
+      <c r="Q15" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="S15" s="27">
+      <c r="S15" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="T15" s="27">
+      <c r="T15" s="40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
@@ -3489,67 +3618,67 @@
       <c r="D16" s="12">
         <v>23</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="O16" s="27">
+      <c r="O16" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P16" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="Q16" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="R16" s="27">
+      <c r="R16" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="S16" s="27">
+      <c r="S16" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="T16" s="27">
+      <c r="T16" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
@@ -3638,67 +3767,67 @@
       <c r="D17" s="12">
         <v>20</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="40">
         <f t="shared" ref="F17:T32" si="18">IF($D17&lt;J$45,$C17,IF($D17=J$45,J$46/MAX((COUNTIF($D$2:$D$43,"="&amp;J$45)),1),0))</f>
         <v>400</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="L17" s="27">
+      <c r="L17" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="M17" s="27">
+      <c r="M17" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="O17" s="27">
+      <c r="O17" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="P17" s="27">
+      <c r="P17" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="Q17" s="27">
+      <c r="Q17" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="R17" s="27">
+      <c r="R17" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="S17" s="27">
+      <c r="S17" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="T17" s="27">
+      <c r="T17" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
@@ -3787,67 +3916,67 @@
       <c r="D18" s="12">
         <v>55</v>
       </c>
-      <c r="E18" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="27">
+      <c r="E18" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="40">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="40">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="I18" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="27">
+      <c r="I18" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="40">
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="40">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="40">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="M18" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="27">
+      <c r="M18" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="40">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="P18" s="27">
+      <c r="P18" s="40">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="Q18" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="27">
+      <c r="Q18" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="40">
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="S18" s="27">
+      <c r="S18" s="40">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="T18" s="27">
+      <c r="T18" s="40">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
@@ -3936,67 +4065,67 @@
       <c r="D19" s="12">
         <v>20.5</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="L19" s="27">
+      <c r="L19" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="M19" s="27">
+      <c r="M19" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="N19" s="27">
+      <c r="N19" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="O19" s="27">
+      <c r="O19" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="P19" s="27">
+      <c r="P19" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="Q19" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="R19" s="27">
+      <c r="R19" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="S19" s="27">
+      <c r="S19" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="T19" s="27">
+      <c r="T19" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
@@ -4073,83 +4202,83 @@
       </c>
     </row>
     <row r="20" spans="1:38" ht="13" thickBot="1">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="20">
         <v>400</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="21">
         <v>61</v>
       </c>
-      <c r="E20" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="27">
+      <c r="E20" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="40">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="H20" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="27">
+      <c r="H20" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="L20" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="27">
+      <c r="L20" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="40">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="P20" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="27">
+      <c r="P20" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="T20" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="17" t="s">
+      <c r="T20" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="18" t="s">
         <v>35</v>
       </c>
       <c r="V20">
@@ -4222,7 +4351,7 @@
       </c>
     </row>
     <row r="21" spans="1:38" ht="13" thickBot="1">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -4234,71 +4363,71 @@
       <c r="D21" s="12">
         <v>58</v>
       </c>
-      <c r="E21" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="27">
+      <c r="E21" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="40">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="40">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="I21" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="27">
+      <c r="I21" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="40">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L21" s="40">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="M21" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="27">
+      <c r="M21" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="40">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="P21" s="27">
+      <c r="P21" s="40">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="Q21" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="27">
+      <c r="Q21" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="40">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="T21" s="27">
+      <c r="T21" s="40">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="U21" s="21" t="s">
+      <c r="U21" s="26" t="s">
         <v>42</v>
       </c>
       <c r="V21">
@@ -4371,7 +4500,7 @@
       </c>
     </row>
     <row r="22" spans="1:38" ht="13" thickBot="1">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -4383,71 +4512,71 @@
       <c r="D22" s="12">
         <v>20</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="40">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K22" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="L22" s="27">
+      <c r="L22" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="M22" s="27">
+      <c r="M22" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="N22" s="27">
+      <c r="N22" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="O22" s="27">
+      <c r="O22" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="P22" s="27">
+      <c r="P22" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="Q22" s="27">
+      <c r="Q22" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="R22" s="27">
+      <c r="R22" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="S22" s="27">
+      <c r="S22" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="T22" s="27">
+      <c r="T22" s="40">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="U22" s="21" t="s">
+      <c r="U22" s="26" t="s">
         <v>42</v>
       </c>
       <c r="V22">
@@ -4520,7 +4649,7 @@
       </c>
     </row>
     <row r="23" spans="1:38" ht="13" thickBot="1">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -4532,71 +4661,71 @@
       <c r="D23" s="12">
         <v>35.5</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="40">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="40">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="40">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="40">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="40">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K23" s="40">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="L23" s="27">
+      <c r="L23" s="40">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="M23" s="27">
+      <c r="M23" s="40">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="N23" s="27">
+      <c r="N23" s="40">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="O23" s="27">
+      <c r="O23" s="40">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="P23" s="27">
+      <c r="P23" s="40">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="Q23" s="27">
+      <c r="Q23" s="40">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="R23" s="27">
+      <c r="R23" s="40">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="S23" s="27">
+      <c r="S23" s="40">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="T23" s="27">
+      <c r="T23" s="40">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="U23" s="21" t="s">
+      <c r="U23" s="26" t="s">
         <v>42</v>
       </c>
       <c r="V23">
@@ -4669,7 +4798,7 @@
       </c>
     </row>
     <row r="24" spans="1:38" ht="13" thickBot="1">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -4681,71 +4810,71 @@
       <c r="D24" s="12">
         <v>53</v>
       </c>
-      <c r="E24" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="27">
+      <c r="E24" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="I24" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="27">
+      <c r="I24" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="K24" s="27">
+      <c r="K24" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="L24" s="27">
+      <c r="L24" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="M24" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="27">
+      <c r="M24" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="O24" s="27">
+      <c r="O24" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="P24" s="27">
+      <c r="P24" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="Q24" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="27">
+      <c r="Q24" s="40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="S24" s="27">
+      <c r="S24" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="T24" s="27">
+      <c r="T24" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="U24" s="21" t="s">
+      <c r="U24" s="26" t="s">
         <v>42</v>
       </c>
       <c r="V24">
@@ -4818,7 +4947,7 @@
       </c>
     </row>
     <row r="25" spans="1:38" ht="13" thickBot="1">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -4830,71 +4959,71 @@
       <c r="D25" s="12">
         <v>36</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="40">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K25" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L25" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="M25" s="27">
+      <c r="M25" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N25" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="O25" s="27">
+      <c r="O25" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="P25" s="27">
+      <c r="P25" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="Q25" s="27">
+      <c r="Q25" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="R25" s="27">
+      <c r="R25" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="S25" s="27">
+      <c r="S25" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="T25" s="27">
+      <c r="T25" s="40">
         <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="U25" s="21" t="s">
+      <c r="U25" s="26" t="s">
         <v>42</v>
       </c>
       <c r="V25">
@@ -4967,7 +5096,7 @@
       </c>
     </row>
     <row r="26" spans="1:38">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -4979,71 +5108,71 @@
       <c r="D26" s="12">
         <v>40</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="40">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="40">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="40">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="40">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="40">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K26" s="40">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="40">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="M26" s="27">
+      <c r="M26" s="40">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="N26" s="27">
+      <c r="N26" s="40">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="O26" s="27">
+      <c r="O26" s="40">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="P26" s="27">
+      <c r="P26" s="40">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="Q26" s="27">
+      <c r="Q26" s="40">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="R26" s="27">
+      <c r="R26" s="40">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="S26" s="27">
+      <c r="S26" s="40">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="T26" s="27">
+      <c r="T26" s="40">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="U26" s="21" t="s">
+      <c r="U26" s="26" t="s">
         <v>42</v>
       </c>
       <c r="V26">
@@ -5116,1199 +5245,1199 @@
       </c>
     </row>
     <row r="27" spans="1:38" ht="15">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="63">
         <v>50</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="64">
         <v>61.5</v>
       </c>
-      <c r="E27" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="49">
+      <c r="E27" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="62">
         <f t="shared" si="18"/>
         <v>50</v>
       </c>
-      <c r="L27" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="49">
+      <c r="L27" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="62">
         <f t="shared" si="18"/>
         <v>50</v>
       </c>
-      <c r="T27" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="49" t="s">
+      <c r="T27" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="V27" s="49">
+      <c r="V27" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W27" s="49">
+      <c r="W27" s="62">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X27" s="49">
+      <c r="X27" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="49">
+      <c r="Y27" s="62">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z27" s="49">
+      <c r="Z27" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="49">
+      <c r="AA27" s="62">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="49">
+      <c r="AB27" s="62">
         <f t="shared" si="10"/>
         <v>20207</v>
       </c>
-      <c r="AC27" s="49">
+      <c r="AC27" s="62">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD27" s="49">
+      <c r="AD27" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE27" s="49">
+      <c r="AE27" s="62">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AF27" s="49">
+      <c r="AF27" s="62">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AG27" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AH27" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AI27" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="49">
+      <c r="AG27" s="62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI27" s="62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="62">
         <f t="shared" si="15"/>
         <v>20207</v>
       </c>
-      <c r="AK27" s="49">
+      <c r="AK27" s="62">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AL27" s="49">
+      <c r="AL27" s="62">
         <f t="shared" si="17"/>
         <v>40414</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="15">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C28" s="63">
         <v>200</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="64">
         <v>61</v>
       </c>
-      <c r="E28" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="49">
+      <c r="E28" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="62">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="H28" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="49">
+      <c r="H28" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="62">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="L28" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="49">
+      <c r="L28" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="62">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="P28" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="49">
+      <c r="P28" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="62">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="T28" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="49" t="s">
+      <c r="T28" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="V28" s="49">
+      <c r="V28" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W28" s="49">
+      <c r="W28" s="62">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X28" s="49">
+      <c r="X28" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="49">
+      <c r="Y28" s="62">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="49">
+      <c r="Z28" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="49">
+      <c r="AA28" s="62">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="49">
+      <c r="AB28" s="62">
         <f t="shared" si="10"/>
         <v>80928</v>
       </c>
-      <c r="AC28" s="49">
+      <c r="AC28" s="62">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD28" s="49">
+      <c r="AD28" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE28" s="49">
+      <c r="AE28" s="62">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AF28" s="49">
+      <c r="AF28" s="62">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AG28" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AH28" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AI28" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="49">
+      <c r="AG28" s="62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="62">
         <f t="shared" si="15"/>
         <v>80928</v>
       </c>
-      <c r="AK28" s="49">
+      <c r="AK28" s="62">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AL28" s="49">
+      <c r="AL28" s="62">
         <f t="shared" si="17"/>
         <v>161856</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="15">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C29" s="63">
         <v>200</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="64">
         <v>60</v>
       </c>
-      <c r="E29" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="49">
+      <c r="E29" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="62">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="H29" s="49">
+      <c r="H29" s="62">
         <f t="shared" si="18"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="I29" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="49">
+      <c r="I29" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="62">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="L29" s="49">
+      <c r="L29" s="62">
         <f t="shared" si="18"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="M29" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="49">
+      <c r="M29" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="62">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="P29" s="49">
+      <c r="P29" s="62">
         <f t="shared" si="18"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="Q29" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="49">
+      <c r="Q29" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="62">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="T29" s="49">
+      <c r="T29" s="62">
         <f t="shared" si="18"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="U29" s="49" t="s">
+      <c r="U29" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="V29" s="49">
+      <c r="V29" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W29" s="49">
+      <c r="W29" s="62">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X29" s="49">
+      <c r="X29" s="62">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="Y29" s="49">
+      <c r="Y29" s="62">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="49">
+      <c r="Z29" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="49">
+      <c r="AA29" s="62">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB29" s="49">
+      <c r="AB29" s="62">
         <f t="shared" si="10"/>
         <v>81128</v>
       </c>
-      <c r="AC29" s="49">
+      <c r="AC29" s="62">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD29" s="49">
+      <c r="AD29" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE29" s="49">
+      <c r="AE29" s="62">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AF29" s="49">
+      <c r="AF29" s="62">
         <f t="shared" si="14"/>
         <v>200</v>
       </c>
-      <c r="AG29" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AH29" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AI29" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="49">
+      <c r="AG29" s="62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="62">
         <f t="shared" si="15"/>
         <v>81128</v>
       </c>
-      <c r="AK29" s="49">
+      <c r="AK29" s="62">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AL29" s="49">
+      <c r="AL29" s="62">
         <f t="shared" si="17"/>
         <v>162656</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="15">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="50">
+      <c r="C30" s="63">
         <v>450</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="64">
         <v>54</v>
       </c>
-      <c r="E30" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="49">
+      <c r="E30" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="62">
         <f t="shared" si="18"/>
         <v>220</v>
       </c>
-      <c r="G30" s="49">
+      <c r="G30" s="62">
         <f t="shared" si="18"/>
         <v>450</v>
       </c>
-      <c r="H30" s="49">
+      <c r="H30" s="62">
         <f t="shared" si="18"/>
         <v>450</v>
       </c>
-      <c r="I30" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="49">
+      <c r="I30" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="62">
         <f t="shared" si="18"/>
         <v>450</v>
       </c>
-      <c r="K30" s="49">
+      <c r="K30" s="62">
         <f t="shared" si="18"/>
         <v>450</v>
       </c>
-      <c r="L30" s="49">
+      <c r="L30" s="62">
         <f t="shared" si="18"/>
         <v>450</v>
       </c>
-      <c r="M30" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="49">
+      <c r="M30" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="62">
         <f t="shared" si="18"/>
         <v>220</v>
       </c>
-      <c r="O30" s="49">
+      <c r="O30" s="62">
         <f t="shared" si="18"/>
         <v>450</v>
       </c>
-      <c r="P30" s="49">
+      <c r="P30" s="62">
         <f t="shared" si="18"/>
         <v>450</v>
       </c>
-      <c r="Q30" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="49">
+      <c r="Q30" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="62">
         <f t="shared" si="18"/>
         <v>450</v>
       </c>
-      <c r="S30" s="49">
+      <c r="S30" s="62">
         <f t="shared" si="18"/>
         <v>450</v>
       </c>
-      <c r="T30" s="49">
+      <c r="T30" s="62">
         <f t="shared" si="18"/>
         <v>450</v>
       </c>
-      <c r="U30" s="49" t="s">
+      <c r="U30" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="V30" s="49">
+      <c r="V30" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W30" s="49">
+      <c r="W30" s="62">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X30" s="49">
+      <c r="X30" s="62">
         <f t="shared" si="6"/>
         <v>3150</v>
       </c>
-      <c r="Y30" s="49">
+      <c r="Y30" s="62">
         <f t="shared" si="7"/>
         <v>2700</v>
       </c>
-      <c r="Z30" s="49">
+      <c r="Z30" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="49">
+      <c r="AA30" s="62">
         <f t="shared" si="9"/>
         <v>450</v>
       </c>
-      <c r="AB30" s="49">
+      <c r="AB30" s="62">
         <f t="shared" si="10"/>
         <v>185238</v>
       </c>
-      <c r="AC30" s="49">
+      <c r="AC30" s="62">
         <f t="shared" si="11"/>
         <v>2700</v>
       </c>
-      <c r="AD30" s="49">
+      <c r="AD30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="49">
+      <c r="AE30" s="62">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AF30" s="49">
+      <c r="AF30" s="62">
         <f t="shared" si="14"/>
         <v>3150</v>
       </c>
-      <c r="AG30" s="49">
+      <c r="AG30" s="62">
         <f t="shared" si="15"/>
         <v>2700</v>
       </c>
-      <c r="AH30" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AI30" s="49">
+      <c r="AH30" s="62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI30" s="62">
         <f t="shared" si="15"/>
         <v>450</v>
       </c>
-      <c r="AJ30" s="49">
+      <c r="AJ30" s="62">
         <f t="shared" si="15"/>
         <v>185238</v>
       </c>
-      <c r="AK30" s="49">
+      <c r="AK30" s="62">
         <f t="shared" si="16"/>
         <v>2700</v>
       </c>
-      <c r="AL30" s="49">
+      <c r="AL30" s="62">
         <f t="shared" si="17"/>
         <v>388476</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="15">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="50">
+      <c r="C31" s="63">
         <v>300</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="64">
         <v>37</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="62">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="62">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="G31" s="49">
+      <c r="G31" s="62">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="H31" s="49">
+      <c r="H31" s="62">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="I31" s="49">
+      <c r="I31" s="62">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="J31" s="49">
+      <c r="J31" s="62">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="K31" s="49">
+      <c r="K31" s="62">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="L31" s="49">
+      <c r="L31" s="62">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="M31" s="49">
+      <c r="M31" s="62">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="N31" s="49">
+      <c r="N31" s="62">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="O31" s="49">
+      <c r="O31" s="62">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="P31" s="49">
+      <c r="P31" s="62">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="Q31" s="49">
+      <c r="Q31" s="62">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="R31" s="49">
+      <c r="R31" s="62">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="S31" s="49">
+      <c r="S31" s="62">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="T31" s="49">
+      <c r="T31" s="62">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
-      <c r="U31" s="49" t="s">
+      <c r="U31" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="V31" s="49">
+      <c r="V31" s="62">
         <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="W31" s="49">
+      <c r="W31" s="62">
         <f t="shared" si="5"/>
         <v>5100</v>
       </c>
-      <c r="X31" s="49">
+      <c r="X31" s="62">
         <f t="shared" si="6"/>
         <v>7200</v>
       </c>
-      <c r="Y31" s="49">
+      <c r="Y31" s="62">
         <f t="shared" si="7"/>
         <v>6900</v>
       </c>
-      <c r="Z31" s="49">
+      <c r="Z31" s="62">
         <f t="shared" si="8"/>
         <v>3000</v>
       </c>
-      <c r="AA31" s="49">
+      <c r="AA31" s="62">
         <f t="shared" si="9"/>
         <v>5400</v>
       </c>
-      <c r="AB31" s="49">
+      <c r="AB31" s="62">
         <f t="shared" si="10"/>
         <v>128592</v>
       </c>
-      <c r="AC31" s="49">
+      <c r="AC31" s="62">
         <f t="shared" si="11"/>
         <v>6900</v>
       </c>
-      <c r="AD31" s="49">
+      <c r="AD31" s="62">
         <f t="shared" si="12"/>
         <v>3000</v>
       </c>
-      <c r="AE31" s="49">
+      <c r="AE31" s="62">
         <f t="shared" si="13"/>
         <v>5100</v>
       </c>
-      <c r="AF31" s="49">
+      <c r="AF31" s="62">
         <f t="shared" si="14"/>
         <v>7200</v>
       </c>
-      <c r="AG31" s="49">
+      <c r="AG31" s="62">
         <f t="shared" si="15"/>
         <v>6900</v>
       </c>
-      <c r="AH31" s="49">
+      <c r="AH31" s="62">
         <f t="shared" si="15"/>
         <v>3000</v>
       </c>
-      <c r="AI31" s="49">
+      <c r="AI31" s="62">
         <f t="shared" si="15"/>
         <v>5400</v>
       </c>
-      <c r="AJ31" s="49">
+      <c r="AJ31" s="62">
         <f t="shared" si="15"/>
         <v>128592</v>
       </c>
-      <c r="AK31" s="49">
+      <c r="AK31" s="62">
         <f t="shared" si="16"/>
         <v>6900</v>
       </c>
-      <c r="AL31" s="49">
+      <c r="AL31" s="62">
         <f t="shared" si="17"/>
         <v>332184</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="15">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="63">
         <v>150</v>
       </c>
-      <c r="D32" s="51">
+      <c r="D32" s="64">
         <v>61</v>
       </c>
-      <c r="E32" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="49">
+      <c r="E32" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="62">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="H32" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="49">
+      <c r="H32" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="62">
         <f t="shared" si="18"/>
         <v>150</v>
       </c>
-      <c r="L32" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="49">
+      <c r="L32" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="62">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="P32" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="49">
+      <c r="P32" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="62">
         <f t="shared" si="18"/>
         <v>150</v>
       </c>
-      <c r="T32" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="49" t="s">
+      <c r="T32" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="V32" s="49">
+      <c r="V32" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W32" s="49">
+      <c r="W32" s="62">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X32" s="49">
+      <c r="X32" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="49">
+      <c r="Y32" s="62">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="49">
+      <c r="Z32" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="49">
+      <c r="AA32" s="62">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB32" s="49">
+      <c r="AB32" s="62">
         <f t="shared" si="10"/>
         <v>60696</v>
       </c>
-      <c r="AC32" s="49">
+      <c r="AC32" s="62">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD32" s="49">
+      <c r="AD32" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="49">
+      <c r="AE32" s="62">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AF32" s="49">
+      <c r="AF32" s="62">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AG32" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AH32" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AI32" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="49">
+      <c r="AG32" s="62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI32" s="62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="62">
         <f t="shared" si="15"/>
         <v>60696</v>
       </c>
-      <c r="AK32" s="49">
+      <c r="AK32" s="62">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AL32" s="49">
+      <c r="AL32" s="62">
         <f t="shared" si="17"/>
         <v>121392</v>
       </c>
     </row>
     <row r="33" spans="1:38" ht="15">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="50">
+      <c r="C33" s="63">
         <v>300</v>
       </c>
-      <c r="D33" s="51">
+      <c r="D33" s="64">
         <v>35</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="62">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="F33" s="49">
+      <c r="F33" s="62">
         <f t="shared" ref="F33:T43" si="19">IF($D33&lt;F$45,$C33,IF($D33=F$45,F$46/MAX((COUNTIF($D$2:$D$43,"="&amp;F$45)),1),0))</f>
         <v>300</v>
       </c>
-      <c r="G33" s="49">
+      <c r="G33" s="62">
         <f t="shared" si="19"/>
         <v>300</v>
       </c>
-      <c r="H33" s="49">
+      <c r="H33" s="62">
         <f t="shared" si="19"/>
         <v>300</v>
       </c>
-      <c r="I33" s="49">
+      <c r="I33" s="62">
         <f t="shared" si="19"/>
         <v>300</v>
       </c>
-      <c r="J33" s="49">
+      <c r="J33" s="62">
         <f t="shared" si="19"/>
         <v>300</v>
       </c>
-      <c r="K33" s="49">
+      <c r="K33" s="62">
         <f t="shared" si="19"/>
         <v>300</v>
       </c>
-      <c r="L33" s="49">
+      <c r="L33" s="62">
         <f t="shared" si="19"/>
         <v>300</v>
       </c>
-      <c r="M33" s="49">
+      <c r="M33" s="62">
         <f t="shared" si="19"/>
         <v>300</v>
       </c>
-      <c r="N33" s="49">
+      <c r="N33" s="62">
         <f t="shared" si="19"/>
         <v>300</v>
       </c>
-      <c r="O33" s="49">
+      <c r="O33" s="62">
         <f t="shared" si="19"/>
         <v>300</v>
       </c>
-      <c r="P33" s="49">
+      <c r="P33" s="62">
         <f t="shared" si="19"/>
         <v>300</v>
       </c>
-      <c r="Q33" s="49">
+      <c r="Q33" s="62">
         <f t="shared" si="19"/>
         <v>300</v>
       </c>
-      <c r="R33" s="49">
+      <c r="R33" s="62">
         <f t="shared" si="19"/>
         <v>300</v>
       </c>
-      <c r="S33" s="49">
+      <c r="S33" s="62">
         <f t="shared" si="19"/>
         <v>300</v>
       </c>
-      <c r="T33" s="49">
+      <c r="T33" s="62">
         <f t="shared" si="19"/>
         <v>300</v>
       </c>
-      <c r="U33" s="49" t="s">
+      <c r="U33" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="V33" s="49">
+      <c r="V33" s="62">
         <f t="shared" si="4"/>
         <v>3600</v>
       </c>
-      <c r="W33" s="49">
+      <c r="W33" s="62">
         <f t="shared" si="5"/>
         <v>5700</v>
       </c>
-      <c r="X33" s="49">
+      <c r="X33" s="62">
         <f t="shared" si="6"/>
         <v>7800</v>
       </c>
-      <c r="Y33" s="49">
+      <c r="Y33" s="62">
         <f t="shared" si="7"/>
         <v>7500</v>
       </c>
-      <c r="Z33" s="49">
+      <c r="Z33" s="62">
         <f t="shared" si="8"/>
         <v>3600</v>
       </c>
-      <c r="AA33" s="49">
+      <c r="AA33" s="62">
         <f t="shared" si="9"/>
         <v>6000</v>
       </c>
-      <c r="AB33" s="49">
+      <c r="AB33" s="62">
         <f t="shared" si="10"/>
         <v>129192</v>
       </c>
-      <c r="AC33" s="49">
+      <c r="AC33" s="62">
         <f t="shared" si="11"/>
         <v>7500</v>
       </c>
-      <c r="AD33" s="49">
+      <c r="AD33" s="62">
         <f t="shared" si="12"/>
         <v>3600</v>
       </c>
-      <c r="AE33" s="49">
+      <c r="AE33" s="62">
         <f t="shared" si="13"/>
         <v>5700</v>
       </c>
-      <c r="AF33" s="49">
+      <c r="AF33" s="62">
         <f t="shared" si="14"/>
         <v>7800</v>
       </c>
-      <c r="AG33" s="49">
+      <c r="AG33" s="62">
         <f t="shared" si="15"/>
         <v>7500</v>
       </c>
-      <c r="AH33" s="49">
+      <c r="AH33" s="62">
         <f t="shared" si="15"/>
         <v>3600</v>
       </c>
-      <c r="AI33" s="49">
+      <c r="AI33" s="62">
         <f t="shared" si="15"/>
         <v>6000</v>
       </c>
-      <c r="AJ33" s="49">
+      <c r="AJ33" s="62">
         <f t="shared" si="15"/>
         <v>129192</v>
       </c>
-      <c r="AK33" s="49">
+      <c r="AK33" s="62">
         <f t="shared" si="16"/>
         <v>7500</v>
       </c>
-      <c r="AL33" s="49">
+      <c r="AL33" s="62">
         <f t="shared" si="17"/>
         <v>341784</v>
       </c>
     </row>
     <row r="34" spans="1:38" ht="16" thickBot="1">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34" s="63">
         <v>350</v>
       </c>
-      <c r="D34" s="51">
+      <c r="D34" s="64">
         <v>42</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="62">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="F34" s="49">
+      <c r="F34" s="62">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="G34" s="49">
+      <c r="G34" s="62">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="H34" s="49">
+      <c r="H34" s="62">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="I34" s="49">
+      <c r="I34" s="62">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="J34" s="49">
+      <c r="J34" s="62">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="K34" s="49">
+      <c r="K34" s="62">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="L34" s="49">
+      <c r="L34" s="62">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="M34" s="49">
+      <c r="M34" s="62">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="N34" s="49">
+      <c r="N34" s="62">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="O34" s="49">
+      <c r="O34" s="62">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="P34" s="49">
+      <c r="P34" s="62">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="Q34" s="49">
+      <c r="Q34" s="62">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="R34" s="49">
+      <c r="R34" s="62">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="S34" s="49">
+      <c r="S34" s="62">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="T34" s="49">
+      <c r="T34" s="62">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="U34" s="49" t="s">
+      <c r="U34" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="V34" s="49">
+      <c r="V34" s="62">
         <f t="shared" si="4"/>
         <v>1750</v>
       </c>
-      <c r="W34" s="49">
+      <c r="W34" s="62">
         <f t="shared" si="5"/>
         <v>4200</v>
       </c>
-      <c r="X34" s="49">
+      <c r="X34" s="62">
         <f t="shared" si="6"/>
         <v>6650</v>
       </c>
-      <c r="Y34" s="49">
+      <c r="Y34" s="62">
         <f t="shared" si="7"/>
         <v>6300</v>
       </c>
-      <c r="Z34" s="49">
+      <c r="Z34" s="62">
         <f t="shared" si="8"/>
         <v>1750</v>
       </c>
-      <c r="AA34" s="49">
+      <c r="AA34" s="62">
         <f t="shared" si="9"/>
         <v>4550</v>
       </c>
-      <c r="AB34" s="49">
+      <c r="AB34" s="62">
         <f t="shared" si="10"/>
         <v>148274</v>
       </c>
-      <c r="AC34" s="49">
+      <c r="AC34" s="62">
         <f t="shared" si="11"/>
         <v>6300</v>
       </c>
-      <c r="AD34" s="49">
+      <c r="AD34" s="62">
         <f t="shared" si="12"/>
         <v>1750</v>
       </c>
-      <c r="AE34" s="49">
+      <c r="AE34" s="62">
         <f t="shared" si="13"/>
         <v>4200</v>
       </c>
-      <c r="AF34" s="49">
+      <c r="AF34" s="62">
         <f t="shared" si="14"/>
         <v>6650</v>
       </c>
-      <c r="AG34" s="49">
+      <c r="AG34" s="62">
         <f t="shared" si="15"/>
         <v>6300</v>
       </c>
-      <c r="AH34" s="49">
+      <c r="AH34" s="62">
         <f t="shared" si="15"/>
         <v>1750</v>
       </c>
-      <c r="AI34" s="49">
+      <c r="AI34" s="62">
         <f t="shared" si="15"/>
         <v>4550</v>
       </c>
-      <c r="AJ34" s="49">
+      <c r="AJ34" s="62">
         <f t="shared" si="15"/>
         <v>148274</v>
       </c>
-      <c r="AK34" s="49">
+      <c r="AK34" s="62">
         <f t="shared" si="16"/>
         <v>6300</v>
       </c>
-      <c r="AL34" s="49">
+      <c r="AL34" s="62">
         <f t="shared" si="17"/>
         <v>359548</v>
       </c>
     </row>
     <row r="35" spans="1:38" ht="13" thickBot="1">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="31" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -6320,71 +6449,71 @@
       <c r="D35" s="12">
         <v>60</v>
       </c>
-      <c r="E35" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="27">
+      <c r="E35" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="40">
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="H35" s="27">
+      <c r="H35" s="40">
         <f t="shared" si="19"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="I35" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="27">
+      <c r="I35" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="40">
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="L35" s="27">
+      <c r="L35" s="40">
         <f t="shared" si="19"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="M35" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="27">
+      <c r="M35" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="40">
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="P35" s="27">
+      <c r="P35" s="40">
         <f t="shared" si="19"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="Q35" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="27">
+      <c r="Q35" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="40">
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="T35" s="27">
+      <c r="T35" s="40">
         <f t="shared" si="19"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="U35" s="22" t="s">
+      <c r="U35" s="31" t="s">
         <v>58</v>
       </c>
       <c r="V35">
@@ -6457,7 +6586,7 @@
       </c>
     </row>
     <row r="36" spans="1:38" ht="13" thickBot="1">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="31" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -6469,71 +6598,71 @@
       <c r="D36" s="12">
         <v>120</v>
       </c>
-      <c r="E36" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="27">
+      <c r="E36" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="40">
         <f t="shared" si="19"/>
         <v>50</v>
       </c>
-      <c r="L36" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="27">
+      <c r="L36" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="40">
         <f t="shared" si="19"/>
         <v>50</v>
       </c>
-      <c r="T36" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="22" t="s">
+      <c r="T36" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="31" t="s">
         <v>58</v>
       </c>
       <c r="V36">
@@ -6606,7 +6735,7 @@
       </c>
     </row>
     <row r="37" spans="1:38" ht="13" thickBot="1">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="31" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="10" t="s">
@@ -6618,71 +6747,71 @@
       <c r="D37" s="12">
         <v>61</v>
       </c>
-      <c r="E37" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="27">
+      <c r="E37" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="40">
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="H37" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="27">
+      <c r="H37" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="40">
         <f t="shared" si="19"/>
         <v>200</v>
       </c>
-      <c r="L37" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="27">
+      <c r="L37" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="40">
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="P37" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="27">
+      <c r="P37" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="40">
         <f t="shared" si="19"/>
         <v>200</v>
       </c>
-      <c r="T37" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U37" s="22" t="s">
+      <c r="T37" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="31" t="s">
         <v>58</v>
       </c>
       <c r="V37">
@@ -6755,7 +6884,7 @@
       </c>
     </row>
     <row r="38" spans="1:38" ht="13" thickBot="1">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="31" t="s">
         <v>58</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -6767,71 +6896,71 @@
       <c r="D38" s="12">
         <v>61</v>
       </c>
-      <c r="E38" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="27">
+      <c r="E38" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="40">
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="H38" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="27">
+      <c r="H38" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="40">
         <f t="shared" si="19"/>
         <v>200</v>
       </c>
-      <c r="L38" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="27">
+      <c r="L38" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="40">
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="P38" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S38" s="27">
+      <c r="P38" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="40">
         <f t="shared" si="19"/>
         <v>200</v>
       </c>
-      <c r="T38" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U38" s="22" t="s">
+      <c r="T38" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="31" t="s">
         <v>58</v>
       </c>
       <c r="V38">
@@ -6904,7 +7033,7 @@
       </c>
     </row>
     <row r="39" spans="1:38" ht="13" thickBot="1">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="31" t="s">
         <v>58</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -6916,71 +7045,71 @@
       <c r="D39" s="12">
         <v>61</v>
       </c>
-      <c r="E39" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="27">
+      <c r="E39" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="40">
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="H39" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="27">
+      <c r="H39" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="40">
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="L39" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="27">
+      <c r="L39" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="40">
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="P39" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S39" s="27">
+      <c r="P39" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="40">
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="T39" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="22" t="s">
+      <c r="T39" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="31" t="s">
         <v>58</v>
       </c>
       <c r="V39">
@@ -7053,7 +7182,7 @@
       </c>
     </row>
     <row r="40" spans="1:38" ht="13" thickBot="1">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="31" t="s">
         <v>58</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -7065,71 +7194,71 @@
       <c r="D40" s="12">
         <v>36.5</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="40">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F40" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G40" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="H40" s="27">
+      <c r="H40" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="I40" s="27">
+      <c r="I40" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="J40" s="27">
+      <c r="J40" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="K40" s="27">
+      <c r="K40" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="L40" s="27">
+      <c r="L40" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="M40" s="27">
+      <c r="M40" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="N40" s="27">
+      <c r="N40" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="O40" s="27">
+      <c r="O40" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="P40" s="27">
+      <c r="P40" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="Q40" s="27">
+      <c r="Q40" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="R40" s="27">
+      <c r="R40" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="S40" s="27">
+      <c r="S40" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="T40" s="27">
+      <c r="T40" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="U40" s="22" t="s">
+      <c r="U40" s="31" t="s">
         <v>58</v>
       </c>
       <c r="V40">
@@ -7202,7 +7331,7 @@
       </c>
     </row>
     <row r="41" spans="1:38" ht="13" thickBot="1">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="31" t="s">
         <v>58</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -7214,71 +7343,71 @@
       <c r="D41" s="12">
         <v>55</v>
       </c>
-      <c r="E41" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="27">
+      <c r="E41" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="H41" s="27">
+      <c r="H41" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="I41" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="27">
+      <c r="I41" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="40">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="K41" s="27">
+      <c r="K41" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="L41" s="27">
+      <c r="L41" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="M41" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="27">
+      <c r="M41" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="P41" s="27">
+      <c r="P41" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="Q41" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="27">
+      <c r="Q41" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="40">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="S41" s="27">
+      <c r="S41" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="T41" s="27">
+      <c r="T41" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="U41" s="22" t="s">
+      <c r="U41" s="31" t="s">
         <v>58</v>
       </c>
       <c r="V41">
@@ -7351,7 +7480,7 @@
       </c>
     </row>
     <row r="42" spans="1:38" ht="13" thickBot="1">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="31" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -7363,71 +7492,71 @@
       <c r="D42" s="12">
         <v>44</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="40">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="F42" s="27">
+      <c r="F42" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="H42" s="27">
+      <c r="H42" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="I42" s="27">
+      <c r="I42" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="J42" s="27">
+      <c r="J42" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="K42" s="27">
+      <c r="K42" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="L42" s="27">
+      <c r="L42" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="M42" s="27">
+      <c r="M42" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="N42" s="27">
+      <c r="N42" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="O42" s="27">
+      <c r="O42" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="P42" s="27">
+      <c r="P42" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="Q42" s="27">
+      <c r="Q42" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="R42" s="27">
+      <c r="R42" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="S42" s="27">
+      <c r="S42" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="T42" s="27">
+      <c r="T42" s="40">
         <f t="shared" si="19"/>
         <v>350</v>
       </c>
-      <c r="U42" s="22" t="s">
+      <c r="U42" s="31" t="s">
         <v>58</v>
       </c>
       <c r="V42">
@@ -7500,83 +7629,83 @@
       </c>
     </row>
     <row r="43" spans="1:38" ht="13" thickBot="1">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C43" s="34">
         <v>100</v>
       </c>
-      <c r="D43" s="26">
+      <c r="D43" s="35">
         <v>61</v>
       </c>
-      <c r="E43" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="27">
+      <c r="E43" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="40">
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="H43" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="27">
+      <c r="H43" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="40">
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="L43" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="27">
+      <c r="L43" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="40">
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="P43" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S43" s="27">
+      <c r="P43" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="40">
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="T43" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="23" t="s">
+      <c r="T43" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="32" t="s">
         <v>58</v>
       </c>
       <c r="V43">
@@ -7736,7 +7865,7 @@
       <c r="I45" s="13">
         <v>47</v>
       </c>
-      <c r="J45" s="28">
+      <c r="J45" s="41">
         <v>55</v>
       </c>
       <c r="K45" s="14">
@@ -7760,10 +7889,10 @@
       <c r="Q45" s="13">
         <v>47</v>
       </c>
-      <c r="R45" s="28">
+      <c r="R45" s="41">
         <v>55</v>
       </c>
-      <c r="S45" s="28">
+      <c r="S45" s="41">
         <v>465.64</v>
       </c>
       <c r="T45" s="15">
@@ -7790,10 +7919,10 @@
       <c r="I46" s="13">
         <v>280</v>
       </c>
-      <c r="J46" s="28">
+      <c r="J46" s="41">
         <v>80</v>
       </c>
-      <c r="K46" s="28">
+      <c r="K46" s="41">
         <v>110</v>
       </c>
       <c r="L46" s="15">
@@ -7848,980 +7977,992 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="32"/>
+    <col min="1" max="16384" width="10.83203125" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="46">
+      <c r="C1" s="59">
         <v>250</v>
       </c>
-      <c r="D1" s="37">
-        <v>0</v>
-      </c>
-      <c r="E1" s="41">
+      <c r="D1" s="50">
+        <v>0</v>
+      </c>
+      <c r="E1" s="54">
         <f>C1</f>
         <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="51">
         <v>100</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="50">
         <v>0.5</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="54">
         <f>SUM(C1+C2)</f>
         <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="51">
         <v>400</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="50">
         <v>20</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="54">
         <f>SUM(E2+C3)</f>
         <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="51">
         <v>400</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="50">
         <v>20</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="54">
         <f>SUM(E3+C4)</f>
         <v>1150</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="51">
         <v>400</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="50">
         <v>20.5</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="54">
         <f>SUM(E4+C5)</f>
         <v>1550</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="51">
         <v>400</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="50">
         <v>23</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="54">
         <f>SUM(E5+C6)</f>
         <v>1950</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="51">
         <v>400</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="50">
         <v>28</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="54">
         <f>SUM(E6+C7)</f>
         <v>2350</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="51">
         <v>700</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="50">
         <v>30</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="54">
         <f>SUM(E7+C8)</f>
         <v>3050</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="51">
         <v>300</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="50">
         <v>35</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="54">
         <f>SUM(E8+C9)</f>
         <v>3350</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="51">
         <v>300</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="50">
         <v>35.5</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="54">
         <f>SUM(E9+C10)</f>
         <v>3650</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="51">
         <v>350</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="50">
         <v>36</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="54">
         <f>SUM(E10+C11)</f>
         <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="51">
         <v>300</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="50">
         <v>36.5</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="54">
         <f>SUM(E11+C12)</f>
         <v>4300</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="51">
         <v>200</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="50">
         <v>36.5</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="54">
         <f>SUM(E12+C13)</f>
         <v>4500</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="51">
         <v>350</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="50">
         <v>36.5</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="54">
         <f>SUM(E13+C14)</f>
         <v>4850</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="45" t="s">
+      <c r="G14" s="56"/>
+      <c r="H14" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="45" t="s">
+      <c r="J14" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="45" t="s">
+      <c r="K14" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="51">
         <v>300</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="50">
         <v>37</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="54">
         <f>SUM(E14+C15)</f>
         <v>5150</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="56">
         <v>6210</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="56">
         <v>7820</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J15" s="56">
         <v>10350</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="56">
         <v>9200</v>
       </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="51">
         <v>200</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="50">
         <v>40</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="54">
         <f>SUM(E15+C16)</f>
         <v>5350</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="56">
         <v>6330</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="56">
         <v>8630</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="56">
         <v>11210</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="56">
         <v>9200</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="51">
         <v>350</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="50">
         <v>42</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="54">
         <f>SUM(E16+C17)</f>
         <v>5700</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="43">
+      <c r="H17" s="56">
         <v>6210</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="56">
         <v>7820</v>
       </c>
-      <c r="J17" s="43">
+      <c r="J17" s="56">
         <v>10350</v>
       </c>
-      <c r="K17" s="43">
+      <c r="K17" s="56">
         <v>9200</v>
       </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="51">
         <v>350</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="50">
         <v>44</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="54">
         <f>SUM(E17+C18)</f>
         <v>6050</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="56">
         <v>6330</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="56">
         <v>8630</v>
       </c>
-      <c r="J18" s="43">
+      <c r="J18" s="56">
         <v>11210</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="56">
         <v>9200</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="51">
         <v>500</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="50">
         <v>47</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="54">
         <f>SUM(E18+C19)</f>
         <v>6550</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="51">
         <v>200</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="50">
         <v>47</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="54">
         <f>SUM(E19+C20)</f>
         <v>6750</v>
       </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="51">
         <v>500</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="50">
         <v>50</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="54">
         <f>SUM(E20+C21)</f>
         <v>7250</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="51">
         <v>350</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="50">
         <v>53</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="54">
         <f>SUM(E21+C22)</f>
         <v>7600</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="G22" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="51">
         <v>450</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="50">
         <v>54</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="54">
         <f>SUM(E22+C23)</f>
         <v>8050</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="51">
         <v>300</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="50">
         <v>55</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="54">
         <f>SUM(E23+C24)</f>
         <v>8350</v>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56">
+        <f>H15*0.97</f>
+        <v>6023.7</v>
+      </c>
+      <c r="I24" s="56">
+        <f>I15*0.97</f>
+        <v>7585.4</v>
+      </c>
+      <c r="J24" s="56">
+        <f t="shared" ref="J24:K24" si="0">J15*0.97</f>
+        <v>10039.5</v>
+      </c>
+      <c r="K24" s="56">
+        <f t="shared" si="0"/>
+        <v>8924</v>
+      </c>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="51">
         <v>100</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="50">
         <v>55</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="54">
         <f>SUM(E24+C25)</f>
         <v>8450</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="51">
         <v>100</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="50">
         <v>55</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="54">
         <f>SUM(E25+C26)</f>
         <v>8550</v>
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="51">
         <v>350</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="50">
         <v>55</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="54">
         <f>SUM(E26+C27)</f>
         <v>8900</v>
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="51">
         <v>100</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="50">
         <v>58</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="54">
         <f>SUM(E27+C28)</f>
         <v>9000</v>
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="51">
         <v>100</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="50">
         <v>60</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="54">
         <f>SUM(E28+C29)</f>
         <v>9100</v>
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="38">
+      <c r="C30" s="51">
         <v>200</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="50">
         <v>60</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="54">
         <f>SUM(E29+C30)</f>
         <v>9300</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="51">
         <v>100</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="50">
         <v>60</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E31" s="54">
         <f>SUM(E30+C31)</f>
         <v>9400</v>
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="51">
         <v>150</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="50">
         <v>60.5</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="54">
         <f>SUM(E31+C32)</f>
         <v>9550</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33" s="51">
         <v>100</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="50">
         <v>61</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="54">
         <f>SUM(E32+C33)</f>
         <v>9650</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="38">
+      <c r="C34" s="51">
         <v>400</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="50">
         <v>61</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="54">
         <f>SUM(E33+C34)</f>
         <v>10050</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="38">
+      <c r="C35" s="51">
         <v>200</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="50">
         <v>61</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="54">
         <f>SUM(E34+C35)</f>
         <v>10250</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="38">
+      <c r="C36" s="51">
         <v>150</v>
       </c>
-      <c r="D36" s="37">
+      <c r="D36" s="50">
         <v>61</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="54">
         <f>SUM(E35+C36)</f>
         <v>10400</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C37" s="51">
         <v>200</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37" s="50">
         <v>61</v>
       </c>
-      <c r="E37" s="41">
+      <c r="E37" s="54">
         <f>SUM(E36+C37)</f>
         <v>10600</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="38">
+      <c r="C38" s="51">
         <v>200</v>
       </c>
-      <c r="D38" s="37">
+      <c r="D38" s="50">
         <v>61</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="54">
         <f>SUM(E37+C38)</f>
         <v>10800</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="38">
+      <c r="C39" s="51">
         <v>100</v>
       </c>
-      <c r="D39" s="37">
+      <c r="D39" s="50">
         <v>61</v>
       </c>
-      <c r="E39" s="41">
+      <c r="E39" s="54">
         <f>SUM(E38+C39)</f>
         <v>10900</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="38">
+      <c r="C40" s="51">
         <v>100</v>
       </c>
-      <c r="D40" s="37">
+      <c r="D40" s="50">
         <v>61</v>
       </c>
-      <c r="E40" s="41">
+      <c r="E40" s="54">
         <f>SUM(E39+C40)</f>
         <v>11000</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="38">
+      <c r="C41" s="51">
         <v>50</v>
       </c>
-      <c r="D41" s="37">
+      <c r="D41" s="50">
         <v>61.5</v>
       </c>
-      <c r="E41" s="41">
+      <c r="E41" s="54">
         <f>SUM(E40+C41)</f>
         <v>11050</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="38">
+      <c r="C42" s="51">
         <v>50</v>
       </c>
-      <c r="D42" s="37">
+      <c r="D42" s="50">
         <v>120</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="54">
         <f>SUM(E41+C42)</f>
         <v>11100</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="40"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="37"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="50"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="40"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="37"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="50"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="40"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="37"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="50"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="40"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="37"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="50"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="40"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="37"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="50"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="40"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="37"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="50"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="40"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="37"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="50"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="40"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="37"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="50"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="40"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="37"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="50"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="36"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="33"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8831,4 +8972,1462 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="9"/>
+    <col min="2" max="2" width="8" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="13" customWidth="1"/>
+    <col min="6" max="7" width="6.33203125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="13" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="13" customWidth="1"/>
+    <col min="14" max="15" width="6.33203125" style="14" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" style="15" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" style="13" customWidth="1"/>
+    <col min="18" max="19" width="6.33203125" style="14" customWidth="1"/>
+    <col min="20" max="20" width="6.33203125" style="15" customWidth="1"/>
+    <col min="24" max="24" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="68">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7">
+        <v>100</v>
+      </c>
+      <c r="D2" s="8">
+        <v>61</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="13"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="11">
+        <v>500</v>
+      </c>
+      <c r="D3" s="12">
+        <v>47</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" s="13"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="11">
+        <v>100</v>
+      </c>
+      <c r="D4" s="12">
+        <v>60</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4" s="13"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="17">
+        <v>250</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5" s="13"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="11">
+        <v>400</v>
+      </c>
+      <c r="D6" s="12">
+        <v>28</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6" s="13"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="11">
+        <v>300</v>
+      </c>
+      <c r="D7" s="12">
+        <v>55</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7" s="13"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="20">
+        <v>300</v>
+      </c>
+      <c r="D8" s="21">
+        <v>36.5</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8" s="22"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8" s="22"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8" s="22"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8" s="13"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="11">
+        <v>700</v>
+      </c>
+      <c r="D9" s="12">
+        <v>30</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="30"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="11">
+        <v>100</v>
+      </c>
+      <c r="D10" s="12">
+        <v>55</v>
+      </c>
+      <c r="T10" s="16"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="11">
+        <v>200</v>
+      </c>
+      <c r="D11" s="12">
+        <v>47</v>
+      </c>
+      <c r="T11" s="16"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="11">
+        <v>150</v>
+      </c>
+      <c r="D12" s="12">
+        <v>60.5</v>
+      </c>
+      <c r="T12" s="16"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="11">
+        <v>200</v>
+      </c>
+      <c r="D13" s="12">
+        <v>36.5</v>
+      </c>
+      <c r="T13" s="16"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="11">
+        <v>100</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="25"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="7">
+        <v>500</v>
+      </c>
+      <c r="D15" s="8">
+        <v>50</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="30"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="11">
+        <v>400</v>
+      </c>
+      <c r="D16" s="12">
+        <v>23</v>
+      </c>
+      <c r="T16" s="16"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="11">
+        <v>400</v>
+      </c>
+      <c r="D17" s="12">
+        <v>20</v>
+      </c>
+      <c r="T17" s="16"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="11">
+        <v>100</v>
+      </c>
+      <c r="D18" s="12">
+        <v>55</v>
+      </c>
+      <c r="T18" s="16"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="11">
+        <v>400</v>
+      </c>
+      <c r="D19" s="12">
+        <v>20.5</v>
+      </c>
+      <c r="T19" s="16"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="20">
+        <v>400</v>
+      </c>
+      <c r="D20" s="21">
+        <v>61</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="25"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="11">
+        <v>100</v>
+      </c>
+      <c r="D21" s="12">
+        <v>58</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="30"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="11">
+        <v>400</v>
+      </c>
+      <c r="D22" s="12">
+        <v>20</v>
+      </c>
+      <c r="T22" s="16"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="11">
+        <v>300</v>
+      </c>
+      <c r="D23" s="12">
+        <v>35.5</v>
+      </c>
+      <c r="T23" s="16"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="11">
+        <v>350</v>
+      </c>
+      <c r="D24" s="12">
+        <v>53</v>
+      </c>
+      <c r="T24" s="16"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="11">
+        <v>350</v>
+      </c>
+      <c r="D25" s="12">
+        <v>36</v>
+      </c>
+      <c r="T25" s="16"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="11">
+        <v>200</v>
+      </c>
+      <c r="D26" s="12">
+        <v>40</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="25"/>
+    </row>
+    <row r="27" spans="1:20" ht="15">
+      <c r="A27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="7">
+        <v>50</v>
+      </c>
+      <c r="D27" s="8">
+        <v>61.5</v>
+      </c>
+      <c r="E27" s="67">
+        <f>IF($D27&lt;E$45,(E$45-0.01),($D27+1))</f>
+        <v>62.5</v>
+      </c>
+      <c r="F27" s="67">
+        <f t="shared" ref="F27:T34" si="0">IF($D27&lt;F$45,(F$45-0.01),($D27+1))</f>
+        <v>62.5</v>
+      </c>
+      <c r="G27" s="67">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="H27" s="67">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="I27" s="67">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="J27" s="67">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="M27" s="67">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="N27" s="67">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="O27" s="67">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="P27" s="67">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="Q27" s="67">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="R27" s="67">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15">
+      <c r="A28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="11">
+        <v>200</v>
+      </c>
+      <c r="D28" s="12">
+        <v>61</v>
+      </c>
+      <c r="E28" s="67">
+        <f t="shared" ref="E28:E34" si="1">IF($D28&lt;E$45,(E$45-0.01),($D28+1))</f>
+        <v>62</v>
+      </c>
+      <c r="F28" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="G28" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="H28" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="I28" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="J28" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="M28" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="N28" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="O28" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="P28" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="Q28" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="R28" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15">
+      <c r="A29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="11">
+        <v>200</v>
+      </c>
+      <c r="D29" s="12">
+        <v>60</v>
+      </c>
+      <c r="E29" s="67">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="F29" s="67">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="G29" s="67">
+        <f t="shared" si="0"/>
+        <v>60.99</v>
+      </c>
+      <c r="H29" s="67">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="I29" s="67">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="J29" s="67">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="M29" s="67">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="N29" s="67">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="O29" s="67">
+        <f t="shared" si="0"/>
+        <v>60.99</v>
+      </c>
+      <c r="P29" s="67">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="Q29" s="67">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="R29" s="67">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15">
+      <c r="A30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="11">
+        <v>450</v>
+      </c>
+      <c r="D30" s="12">
+        <v>54</v>
+      </c>
+      <c r="E30" s="67">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="F30" s="67">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G30" s="67">
+        <f t="shared" si="0"/>
+        <v>60.99</v>
+      </c>
+      <c r="H30" s="67">
+        <f t="shared" si="0"/>
+        <v>59.99</v>
+      </c>
+      <c r="I30" s="67">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="J30" s="67">
+        <f t="shared" si="0"/>
+        <v>54.99</v>
+      </c>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67">
+        <f t="shared" si="0"/>
+        <v>59.99</v>
+      </c>
+      <c r="M30" s="67">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="N30" s="67">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="O30" s="67">
+        <f t="shared" si="0"/>
+        <v>60.99</v>
+      </c>
+      <c r="P30" s="67">
+        <f t="shared" si="0"/>
+        <v>59.99</v>
+      </c>
+      <c r="Q30" s="67">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="R30" s="67">
+        <f t="shared" si="0"/>
+        <v>54.99</v>
+      </c>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67">
+        <f t="shared" si="0"/>
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15">
+      <c r="A31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="11">
+        <v>300</v>
+      </c>
+      <c r="D31" s="12">
+        <v>37</v>
+      </c>
+      <c r="E31" s="67">
+        <f t="shared" si="1"/>
+        <v>46.99</v>
+      </c>
+      <c r="F31" s="67">
+        <f t="shared" si="0"/>
+        <v>53.99</v>
+      </c>
+      <c r="G31" s="67">
+        <f t="shared" si="0"/>
+        <v>60.99</v>
+      </c>
+      <c r="H31" s="67">
+        <f t="shared" si="0"/>
+        <v>59.99</v>
+      </c>
+      <c r="I31" s="67">
+        <f t="shared" si="0"/>
+        <v>46.99</v>
+      </c>
+      <c r="J31" s="67">
+        <f t="shared" si="0"/>
+        <v>54.99</v>
+      </c>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67">
+        <f t="shared" si="0"/>
+        <v>59.99</v>
+      </c>
+      <c r="M31" s="67">
+        <f t="shared" si="0"/>
+        <v>46.99</v>
+      </c>
+      <c r="N31" s="67">
+        <f t="shared" si="0"/>
+        <v>53.99</v>
+      </c>
+      <c r="O31" s="67">
+        <f t="shared" si="0"/>
+        <v>60.99</v>
+      </c>
+      <c r="P31" s="67">
+        <f t="shared" si="0"/>
+        <v>59.99</v>
+      </c>
+      <c r="Q31" s="67">
+        <f t="shared" si="0"/>
+        <v>46.99</v>
+      </c>
+      <c r="R31" s="67">
+        <f t="shared" si="0"/>
+        <v>54.99</v>
+      </c>
+      <c r="S31" s="67"/>
+      <c r="T31" s="67">
+        <f t="shared" si="0"/>
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15">
+      <c r="A32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="11">
+        <v>150</v>
+      </c>
+      <c r="D32" s="12">
+        <v>61</v>
+      </c>
+      <c r="E32" s="67">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="F32" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="G32" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="H32" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="I32" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="J32" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="M32" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="N32" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="O32" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="P32" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="Q32" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="R32" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="S32" s="67"/>
+      <c r="T32" s="67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="15">
+      <c r="A33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="11">
+        <v>300</v>
+      </c>
+      <c r="D33" s="12">
+        <v>35</v>
+      </c>
+      <c r="E33" s="67">
+        <f t="shared" si="1"/>
+        <v>46.99</v>
+      </c>
+      <c r="F33" s="67">
+        <f t="shared" si="0"/>
+        <v>53.99</v>
+      </c>
+      <c r="G33" s="67">
+        <f t="shared" si="0"/>
+        <v>60.99</v>
+      </c>
+      <c r="H33" s="67">
+        <f t="shared" si="0"/>
+        <v>59.99</v>
+      </c>
+      <c r="I33" s="67">
+        <f t="shared" si="0"/>
+        <v>46.99</v>
+      </c>
+      <c r="J33" s="67">
+        <f t="shared" si="0"/>
+        <v>54.99</v>
+      </c>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67">
+        <f t="shared" si="0"/>
+        <v>59.99</v>
+      </c>
+      <c r="M33" s="67">
+        <f t="shared" si="0"/>
+        <v>46.99</v>
+      </c>
+      <c r="N33" s="67">
+        <f t="shared" si="0"/>
+        <v>53.99</v>
+      </c>
+      <c r="O33" s="67">
+        <f t="shared" si="0"/>
+        <v>60.99</v>
+      </c>
+      <c r="P33" s="67">
+        <f t="shared" si="0"/>
+        <v>59.99</v>
+      </c>
+      <c r="Q33" s="67">
+        <f t="shared" si="0"/>
+        <v>46.99</v>
+      </c>
+      <c r="R33" s="67">
+        <f t="shared" si="0"/>
+        <v>54.99</v>
+      </c>
+      <c r="S33" s="67"/>
+      <c r="T33" s="67">
+        <f t="shared" si="0"/>
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15">
+      <c r="A34" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="20">
+        <v>350</v>
+      </c>
+      <c r="D34" s="21">
+        <v>42</v>
+      </c>
+      <c r="E34" s="67">
+        <f t="shared" si="1"/>
+        <v>46.99</v>
+      </c>
+      <c r="F34" s="67">
+        <f t="shared" si="0"/>
+        <v>53.99</v>
+      </c>
+      <c r="G34" s="67">
+        <f t="shared" si="0"/>
+        <v>60.99</v>
+      </c>
+      <c r="H34" s="67">
+        <f t="shared" si="0"/>
+        <v>59.99</v>
+      </c>
+      <c r="I34" s="67">
+        <f t="shared" si="0"/>
+        <v>46.99</v>
+      </c>
+      <c r="J34" s="67">
+        <f t="shared" si="0"/>
+        <v>54.99</v>
+      </c>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67">
+        <f t="shared" si="0"/>
+        <v>59.99</v>
+      </c>
+      <c r="M34" s="67">
+        <f t="shared" si="0"/>
+        <v>46.99</v>
+      </c>
+      <c r="N34" s="67">
+        <f t="shared" si="0"/>
+        <v>53.99</v>
+      </c>
+      <c r="O34" s="67">
+        <f t="shared" si="0"/>
+        <v>60.99</v>
+      </c>
+      <c r="P34" s="67">
+        <f t="shared" si="0"/>
+        <v>59.99</v>
+      </c>
+      <c r="Q34" s="67">
+        <f t="shared" si="0"/>
+        <v>46.99</v>
+      </c>
+      <c r="R34" s="67">
+        <f t="shared" si="0"/>
+        <v>54.99</v>
+      </c>
+      <c r="S34" s="67"/>
+      <c r="T34" s="67">
+        <f t="shared" si="0"/>
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="11">
+        <v>100</v>
+      </c>
+      <c r="D35" s="12">
+        <v>60</v>
+      </c>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="30"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="11">
+        <v>50</v>
+      </c>
+      <c r="D36" s="12">
+        <v>120</v>
+      </c>
+      <c r="T36" s="16"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="11">
+        <v>200</v>
+      </c>
+      <c r="D37" s="12">
+        <v>61</v>
+      </c>
+      <c r="T37" s="16"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="11">
+        <v>200</v>
+      </c>
+      <c r="D38" s="12">
+        <v>61</v>
+      </c>
+      <c r="T38" s="16"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="11">
+        <v>100</v>
+      </c>
+      <c r="D39" s="12">
+        <v>61</v>
+      </c>
+      <c r="T39" s="16"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="11">
+        <v>350</v>
+      </c>
+      <c r="D40" s="12">
+        <v>36.5</v>
+      </c>
+      <c r="T40" s="16"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="11">
+        <v>350</v>
+      </c>
+      <c r="D41" s="12">
+        <v>55</v>
+      </c>
+      <c r="T41" s="16"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="11">
+        <v>350</v>
+      </c>
+      <c r="D42" s="12">
+        <v>44</v>
+      </c>
+      <c r="T42" s="16"/>
+    </row>
+    <row r="43" spans="1:20" ht="13" thickBot="1">
+      <c r="A43" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="34">
+        <v>100</v>
+      </c>
+      <c r="D43" s="35">
+        <v>61</v>
+      </c>
+      <c r="E43" s="36"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="39"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="13">
+        <v>47</v>
+      </c>
+      <c r="F45" s="14">
+        <v>54</v>
+      </c>
+      <c r="G45" s="14">
+        <v>61</v>
+      </c>
+      <c r="H45" s="15">
+        <v>60</v>
+      </c>
+      <c r="I45" s="13">
+        <v>47</v>
+      </c>
+      <c r="J45" s="41">
+        <v>55</v>
+      </c>
+      <c r="K45" s="14">
+        <v>465.64</v>
+      </c>
+      <c r="L45" s="15">
+        <v>60</v>
+      </c>
+      <c r="M45" s="13">
+        <v>47</v>
+      </c>
+      <c r="N45" s="14">
+        <v>54</v>
+      </c>
+      <c r="O45" s="14">
+        <v>61</v>
+      </c>
+      <c r="P45" s="15">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="13">
+        <v>47</v>
+      </c>
+      <c r="R45" s="41">
+        <v>55</v>
+      </c>
+      <c r="S45" s="41">
+        <v>465.64</v>
+      </c>
+      <c r="T45" s="15">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>